--- a/data/trans_orig/CONS_TIR-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_TIR-Edad-trans_orig.xlsx
@@ -4070,12 +4070,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2857</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4085,12 +4085,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4183,12 +4183,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>226511</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -4198,12 +4198,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>98,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">

--- a/data/trans_orig/CONS_TIR-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_TIR-Edad-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tiroides en País Vasco</t>
+          <t>Consumo de medicamentos para la tiroides en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tiroides en Andalucia</t>
+          <t>Consumo de medicamentos para la tiroides en Andalucia (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tiroides en C.Valenciana</t>
+          <t>Consumo de medicamentos para la tiroides en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_TIR-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_TIR-Edad-trans_orig.xlsx
@@ -735,7 +735,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>173</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -745,12 +745,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1253</t>
+          <t>774</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,67 +770,67 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>348</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>81</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>1016</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
+          <t>0,12%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,53%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1396</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>0,36%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
           <t>0,11%</t>
         </is>
       </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>1,52%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>554</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>1559</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,44%</t>
-        </is>
-      </c>
-      <c r="V4" s="2" t="inlineStr">
-        <is>
-          <t>0,11%</t>
-        </is>
-      </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>0,98%</t>
         </is>
       </c>
     </row>
@@ -848,27 +848,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62573</t>
+          <t>76708</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61563</t>
+          <t>76107</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,61%</t>
+          <t>99,77%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>98,01%</t>
+          <t>98,99%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>62182</t>
+          <t>65894</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>61543</t>
+          <t>65226</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>62427</t>
+          <t>66161</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>99,5%</t>
+          <t>99,47%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>98,48%</t>
+          <t>98,47%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,89%</t>
+          <t>99,88%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,27 +918,27 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>124755</t>
+          <t>142601</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>123750</t>
+          <t>141727</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>125174</t>
+          <t>142963</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>99,56%</t>
+          <t>99,64%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>98,76%</t>
+          <t>99,02%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1083,22 +1083,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>451</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2931</t>
+          <t>3179</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>1715</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>823</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3275</t>
+          <t>3422</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>2896</t>
+          <t>2977</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>1537</t>
+          <t>1656</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>4874</t>
+          <t>5361</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,75%</t>
         </is>
       </c>
     </row>
@@ -1191,22 +1191,22 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>67903</t>
+          <t>73721</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>66234</t>
+          <t>71804</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>68741</t>
+          <t>74532</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,18%</t>
+          <t>98,32%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,39%</t>
+          <t>99,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>60849</t>
+          <t>66333</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>59208</t>
+          <t>64626</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>61774</t>
+          <t>67225</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>97,48%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>94,97%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,87%</t>
+          <t>98,79%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>128751</t>
+          <t>140054</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>126773</t>
+          <t>137670</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>130110</t>
+          <t>141375</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,8%</t>
+          <t>97,92%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>96,25%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,83%</t>
+          <t>98,84%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>1511</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>710</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3050</t>
+          <t>3208</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5171</t>
+          <t>5919</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3614</t>
+          <t>4188</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7092</t>
+          <t>8549</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>6585</t>
+          <t>7429</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4697</t>
+          <t>5206</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>8959</t>
+          <t>10094</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>4,7%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>93281</t>
+          <t>102449</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>91645</t>
+          <t>100752</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>94131</t>
+          <t>103250</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,51%</t>
+          <t>98,55%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,78%</t>
+          <t>96,91%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,4%</t>
+          <t>99,32%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>92334</t>
+          <t>104796</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>90413</t>
+          <t>102166</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>93891</t>
+          <t>106527</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,7%</t>
+          <t>94,65%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>92,73%</t>
+          <t>92,28%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,29%</t>
+          <t>96,22%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>185615</t>
+          <t>207246</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>183241</t>
+          <t>204581</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>187503</t>
+          <t>209469</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,57%</t>
+          <t>96,54%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,34%</t>
+          <t>95,3%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,56%</t>
+          <t>97,57%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>1198</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>447</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2228</t>
+          <t>2827</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7994</t>
+          <t>7251</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5965</t>
+          <t>5183</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10954</t>
+          <t>9870</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>8995</t>
+          <t>8449</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>6477</t>
+          <t>6138</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>11535</t>
+          <t>10948</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>3,68%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>138413</t>
+          <t>143580</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>137186</t>
+          <t>141951</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>139005</t>
+          <t>144331</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>99,28%</t>
+          <t>99,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>98,4%</t>
+          <t>98,05%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,71%</t>
+          <t>99,69%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>129981</t>
+          <t>145293</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>127021</t>
+          <t>142674</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>132010</t>
+          <t>147361</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,21%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,06%</t>
+          <t>93,53%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,68%</t>
+          <t>96,6%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>268395</t>
+          <t>288872</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>265855</t>
+          <t>286373</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>270913</t>
+          <t>291183</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>96,76%</t>
+          <t>97,16%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,84%</t>
+          <t>96,32%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,66%</t>
+          <t>97,94%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1683</t>
+          <t>1605</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>809</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3438</t>
+          <t>2874</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>13891</t>
+          <t>12437</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>10909</t>
+          <t>9572</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>17586</t>
+          <t>15501</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>15574</t>
+          <t>14041</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>12372</t>
+          <t>10796</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>19725</t>
+          <t>17696</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>6,29%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>125171</t>
+          <t>127977</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>123416</t>
+          <t>126708</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>126111</t>
+          <t>128773</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,67%</t>
+          <t>98,76%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>97,78%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,41%</t>
+          <t>99,38%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>133450</t>
+          <t>139478</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>129755</t>
+          <t>136414</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>136432</t>
+          <t>142343</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>90,57%</t>
+          <t>91,81%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>88,06%</t>
+          <t>89,8%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>92,6%</t>
+          <t>93,7%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>258620</t>
+          <t>267457</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>254469</t>
+          <t>263802</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>261822</t>
+          <t>270702</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>94,32%</t>
+          <t>95,01%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>92,81%</t>
+          <t>93,71%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,49%</t>
+          <t>96,16%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,32 +2450,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1069</t>
+          <t>1546</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3340</t>
+          <t>4723</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2485,32 +2485,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13715</t>
+          <t>13185</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10730</t>
+          <t>10558</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>16690</t>
+          <t>16649</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2520,32 +2520,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>15712</t>
+          <t>15985</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>12649</t>
+          <t>12724</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>19200</t>
+          <t>19934</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>9,05%</t>
         </is>
       </c>
     </row>
@@ -2563,32 +2563,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>105607</t>
+          <t>101666</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>104264</t>
+          <t>99743</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>106535</t>
+          <t>102920</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,14%</t>
+          <t>97,32%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>96,9%</t>
+          <t>95,48%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2598,32 +2598,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>101193</t>
+          <t>102595</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>98218</t>
+          <t>99131</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>104178</t>
+          <t>105222</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>88,06%</t>
+          <t>88,61%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>85,48%</t>
+          <t>85,62%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>90,66%</t>
+          <t>90,88%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2633,32 +2633,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>206800</t>
+          <t>204261</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>203312</t>
+          <t>200312</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>209863</t>
+          <t>207522</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>92,74%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>91,37%</t>
+          <t>90,95%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>94,32%</t>
+          <t>94,22%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1633</t>
+          <t>1260</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>562</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>3509</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2828,32 +2828,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>12699</t>
+          <t>12711</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>10084</t>
+          <t>10092</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>15695</t>
+          <t>15614</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2863,32 +2863,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>14331</t>
+          <t>13971</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>11344</t>
+          <t>11319</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>17722</t>
+          <t>17636</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>7,96%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>94722</t>
+          <t>87963</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>92846</t>
+          <t>86417</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>95692</t>
+          <t>88661</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>98,31%</t>
+          <t>98,59%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>96,36%</t>
+          <t>96,85%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>99,31%</t>
+          <t>99,37%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,32 +2941,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>121232</t>
+          <t>119601</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>118236</t>
+          <t>116698</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>123847</t>
+          <t>122220</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>90,52%</t>
+          <t>90,39%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>88,28%</t>
+          <t>88,2%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>92,47%</t>
+          <t>92,37%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2976,32 +2976,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>215955</t>
+          <t>207564</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>212564</t>
+          <t>203899</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>218942</t>
+          <t>210216</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>93,78%</t>
+          <t>93,69%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>92,3%</t>
+          <t>92,04%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>95,07%</t>
+          <t>94,89%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3136,32 +3136,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>9233</t>
+          <t>9809</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>6684</t>
+          <t>7320</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>12285</t>
+          <t>12973</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3171,32 +3171,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>55414</t>
+          <t>53566</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>48852</t>
+          <t>47239</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>61190</t>
+          <t>59788</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3206,32 +3206,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>64647</t>
+          <t>63375</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>57805</t>
+          <t>57012</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>72331</t>
+          <t>70433</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>4,63%</t>
         </is>
       </c>
     </row>
@@ -3249,32 +3249,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>687670</t>
+          <t>714063</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>684618</t>
+          <t>710899</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>690219</t>
+          <t>716552</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>98,68%</t>
+          <t>98,64%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>98,24%</t>
+          <t>98,21%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>99,04%</t>
+          <t>98,99%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3284,32 +3284,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>701221</t>
+          <t>743990</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>695445</t>
+          <t>737768</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>707783</t>
+          <t>750317</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>92,68%</t>
+          <t>93,28%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>91,91%</t>
+          <t>92,5%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>93,54%</t>
+          <t>94,08%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3319,32 +3319,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1388891</t>
+          <t>1458054</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1381207</t>
+          <t>1450996</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1395733</t>
+          <t>1464417</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>95,55%</t>
+          <t>95,83%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>95,02%</t>
+          <t>95,37%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>96,25%</t>
         </is>
       </c>
     </row>
@@ -3362,17 +3362,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3397,17 +3397,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3432,17 +3432,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20893</t>
+          <t>19920</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1362</t>
+          <t>1382</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>14392</t>
+          <t>15021</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3797,12 +3797,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>3756</t>
+          <t>3444</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>25674</t>
+          <t>24114</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3812,12 +3812,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>5,73%</t>
         </is>
       </c>
     </row>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>215343</t>
+          <t>216316</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>91,16%</t>
+          <t>91,57%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>169961</t>
+          <t>169332</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>182991</t>
+          <t>182971</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>92,19%</t>
+          <t>91,85%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,26%</t>
+          <t>99,25%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3910,12 +3910,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>394915</t>
+          <t>396475</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>416833</t>
+          <t>417145</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3925,12 +3925,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>93,9%</t>
+          <t>94,27%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,11%</t>
+          <t>99,18%</t>
         </is>
       </c>
     </row>
@@ -4105,12 +4105,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4634</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21375</t>
+          <t>21010</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4125,7 +4125,7 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4140,12 +4140,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>5767</t>
+          <t>5869</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>20830</t>
+          <t>21007</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4155,12 +4155,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,86%</t>
         </is>
       </c>
     </row>
@@ -4218,12 +4218,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>293053</t>
+          <t>293418</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>309794</t>
+          <t>309819</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,2%</t>
+          <t>93,32%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
@@ -4253,12 +4253,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>522966</t>
+          <t>522789</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>538029</t>
+          <t>537927</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4268,12 +4268,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,17%</t>
+          <t>96,14%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,94%</t>
+          <t>98,92%</t>
         </is>
       </c>
     </row>
@@ -4413,12 +4413,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1066</t>
+          <t>1079</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10083</t>
+          <t>9843</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4428,12 +4428,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>13765</t>
+          <t>12660</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>27805</t>
+          <t>27314</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4463,12 +4463,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4483,12 +4483,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>16715</t>
+          <t>16751</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>33921</t>
+          <t>33902</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,35%</t>
         </is>
       </c>
     </row>
@@ -4526,12 +4526,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>300686</t>
+          <t>300926</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>309703</t>
+          <t>309690</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4541,12 +4541,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,76%</t>
+          <t>96,83%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,66%</t>
+          <t>99,65%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>294808</t>
+          <t>295299</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>308848</t>
+          <t>309953</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4576,12 +4576,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>91,38%</t>
+          <t>91,53%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,73%</t>
+          <t>96,08%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4596,12 +4596,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>599460</t>
+          <t>599479</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>616666</t>
+          <t>616630</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,64%</t>
+          <t>94,65%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
@@ -4756,12 +4756,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1082</t>
+          <t>1351</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17686</t>
+          <t>17502</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26621</t>
+          <t>26830</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>52747</t>
+          <t>55153</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4806,12 +4806,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>20332</t>
+          <t>21515</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>64987</t>
+          <t>66199</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4841,12 +4841,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>6,41%</t>
         </is>
       </c>
     </row>
@@ -4869,12 +4869,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>609478</t>
+          <t>609662</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>626082</t>
+          <t>625813</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4884,12 +4884,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,18%</t>
+          <t>97,21%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,83%</t>
+          <t>99,78%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>352055</t>
+          <t>349649</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>378181</t>
+          <t>377972</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4919,12 +4919,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>86,97%</t>
+          <t>86,38%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,42%</t>
+          <t>93,37%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4939,12 +4939,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>966979</t>
+          <t>965767</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1011634</t>
+          <t>1010451</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4954,12 +4954,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>93,59%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,03%</t>
+          <t>97,92%</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1354</t>
+          <t>1706</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9428</t>
+          <t>9598</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5134,12 +5134,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>36772</t>
+          <t>35916</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>55069</t>
+          <t>54923</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>17,26%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5169,12 +5169,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>39397</t>
+          <t>39739</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>59461</t>
+          <t>59847</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>9,1%</t>
         </is>
       </c>
     </row>
@@ -5212,12 +5212,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>329701</t>
+          <t>329531</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>337775</t>
+          <t>337423</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>97,22%</t>
+          <t>97,17%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,6%</t>
+          <t>99,5%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>263178</t>
+          <t>263324</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>281475</t>
+          <t>282331</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5262,12 +5262,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>82,7%</t>
+          <t>82,74%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>88,45%</t>
+          <t>88,71%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5282,12 +5282,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>597916</t>
+          <t>597530</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>617980</t>
+          <t>617638</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>90,95%</t>
+          <t>90,9%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>94,01%</t>
+          <t>93,95%</t>
         </is>
       </c>
     </row>
@@ -5442,12 +5442,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1187</t>
+          <t>766</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6995</t>
+          <t>7153</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5457,12 +5457,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>42238</t>
+          <t>42924</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>374350</t>
+          <t>390085</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>82,7%</t>
+          <t>86,18%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5512,12 +5512,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>38701</t>
+          <t>38109</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>473896</t>
+          <t>494306</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>71,72%</t>
+          <t>74,81%</t>
         </is>
       </c>
     </row>
@@ -5555,12 +5555,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>201089</t>
+          <t>200931</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>206897</t>
+          <t>207318</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>96,64%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,43%</t>
+          <t>99,63%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>78292</t>
+          <t>62557</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>410404</t>
+          <t>409718</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>90,67%</t>
+          <t>90,52%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5625,12 +5625,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>186831</t>
+          <t>166421</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>622026</t>
+          <t>622618</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5640,12 +5640,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>28,28%</t>
+          <t>25,19%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>94,23%</t>
         </is>
       </c>
     </row>
@@ -5785,12 +5785,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1447</t>
+          <t>1424</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>8014</t>
+          <t>8075</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5800,12 +5800,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5820,12 +5820,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>18095</t>
+          <t>17680</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>32659</t>
+          <t>32335</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5835,12 +5835,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>13,84%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5855,12 +5855,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>21104</t>
+          <t>21079</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>36671</t>
+          <t>36870</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5870,12 +5870,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>9,57%</t>
         </is>
       </c>
     </row>
@@ -5898,12 +5898,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>143761</t>
+          <t>143700</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>150328</t>
+          <t>150351</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5913,12 +5913,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>94,72%</t>
+          <t>94,68%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>99,05%</t>
+          <t>99,06%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5933,12 +5933,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>200945</t>
+          <t>201269</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>215509</t>
+          <t>215924</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5948,12 +5948,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>86,02%</t>
+          <t>86,16%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>92,25%</t>
+          <t>92,43%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5968,12 +5968,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>348708</t>
+          <t>348509</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>364275</t>
+          <t>364300</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5983,12 +5983,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>90,48%</t>
+          <t>90,43%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>94,52%</t>
+          <t>94,53%</t>
         </is>
       </c>
     </row>
@@ -6128,12 +6128,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>17634</t>
+          <t>17860</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>45462</t>
+          <t>47465</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6143,12 +6143,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6163,12 +6163,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>174632</t>
+          <t>173681</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>885573</t>
+          <t>937632</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6178,12 +6178,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>39,7%</t>
+          <t>42,03%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6198,12 +6198,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>193087</t>
+          <t>195650</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>981673</t>
+          <t>966642</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6213,12 +6213,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>22,31%</t>
         </is>
       </c>
     </row>
@@ -6241,12 +6241,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2057063</t>
+          <t>2055060</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2084891</t>
+          <t>2084665</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6256,12 +6256,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>97,84%</t>
+          <t>97,74%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>99,16%</t>
+          <t>99,15%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6276,12 +6276,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1345116</t>
+          <t>1293057</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2056057</t>
+          <t>2057008</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6291,12 +6291,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>60,3%</t>
+          <t>57,97%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>92,17%</t>
+          <t>92,21%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6311,12 +6311,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>3351541</t>
+          <t>3366572</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4140127</t>
+          <t>4137564</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6326,12 +6326,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>77,35%</t>
+          <t>77,69%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>95,54%</t>
+          <t>95,48%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_TIR-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_TIR-Edad-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tiroides en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos para la tiroides en Andalucia (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,12 +730,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>5126</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -745,12 +745,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>17502</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -760,77 +760,77 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>7721</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>2480</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1016</t>
+          <t>18752</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>12847</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>4873</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>1396</t>
+          <t>27481</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>5,96%</t>
         </is>
       </c>
     </row>
@@ -843,32 +843,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76708</t>
+          <t>236139</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>76107</t>
+          <t>223763</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,77%</t>
+          <t>97,88%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>98,99%</t>
+          <t>92,75%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -878,72 +878,72 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>65894</t>
+          <t>211934</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>65226</t>
+          <t>200903</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>66161</t>
+          <t>217175</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>99,47%</t>
+          <t>96,48%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>98,47%</t>
+          <t>91,46%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,88%</t>
+          <t>98,87%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>206</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>142601</t>
+          <t>448073</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>141727</t>
+          <t>433439</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>142963</t>
+          <t>456047</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>99,64%</t>
+          <t>97,21%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>99,02%</t>
+          <t>94,04%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,89%</t>
+          <t>98,94%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1262</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3179</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1715</t>
+          <t>13025</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>6878</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3422</t>
+          <t>21616</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>2977</t>
+          <t>13025</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>1656</t>
+          <t>7107</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>5361</t>
+          <t>22110</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>4,05%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>73721</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>71804</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>74532</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,32%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>237</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>66333</t>
+          <t>270428</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>64626</t>
+          <t>261837</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>67225</t>
+          <t>276575</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,48%</t>
+          <t>95,41%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>94,97%</t>
+          <t>92,37%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,79%</t>
+          <t>97,57%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>390</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>140054</t>
+          <t>532401</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>137670</t>
+          <t>523316</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>141375</t>
+          <t>538319</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,92%</t>
+          <t>97,61%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,25%</t>
+          <t>95,95%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,84%</t>
+          <t>98,7%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1511</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>1073</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3208</t>
+          <t>9656</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5919</t>
+          <t>21808</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4188</t>
+          <t>14798</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8549</t>
+          <t>31040</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>34</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>7429</t>
+          <t>26060</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>5206</t>
+          <t>18689</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>10094</t>
+          <t>36826</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>4,97%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>309</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>102449</t>
+          <t>364066</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>100752</t>
+          <t>358662</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>103250</t>
+          <t>367245</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,55%</t>
+          <t>98,85%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,91%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,32%</t>
+          <t>99,71%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>463</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>104796</t>
+          <t>351577</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>102166</t>
+          <t>342345</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>106527</t>
+          <t>358587</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,65%</t>
+          <t>94,16%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>92,28%</t>
+          <t>91,69%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,22%</t>
+          <t>96,04%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1108</t>
+          <t>772</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>207246</t>
+          <t>715643</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>204581</t>
+          <t>704877</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>209469</t>
+          <t>723014</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,54%</t>
+          <t>96,49%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,3%</t>
+          <t>95,03%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,57%</t>
+          <t>97,48%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>493</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>806</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>8081</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>3372</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2827</t>
+          <t>16571</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7251</t>
+          <t>34752</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5183</t>
+          <t>26432</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9870</t>
+          <t>43665</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>8449</t>
+          <t>42833</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>6138</t>
+          <t>33178</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>10948</t>
+          <t>55920</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>6,46%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>383</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>143580</t>
+          <t>415860</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>141951</t>
+          <t>407370</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>144331</t>
+          <t>420569</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>99,17%</t>
+          <t>98,09%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>98,05%</t>
+          <t>96,09%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,69%</t>
+          <t>99,2%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>606</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>145293</t>
+          <t>406540</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>142674</t>
+          <t>397627</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>147361</t>
+          <t>414860</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>95,25%</t>
+          <t>92,13%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,53%</t>
+          <t>90,11%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,6%</t>
+          <t>94,01%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1564</t>
+          <t>989</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>288872</t>
+          <t>822401</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>286373</t>
+          <t>809314</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>291183</t>
+          <t>832056</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>97,16%</t>
+          <t>95,05%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>96,32%</t>
+          <t>93,54%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,94%</t>
+          <t>96,17%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>660</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,72 +2102,72 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>5687</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>2749</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2874</t>
+          <t>12124</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>12437</t>
+          <t>50892</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>9572</t>
+          <t>41372</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>15501</t>
+          <t>62378</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>14,15%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>14041</t>
+          <t>56579</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>10796</t>
+          <t>45564</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>17696</t>
+          <t>68805</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>9,46%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>392</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>127977</t>
+          <t>362356</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>126708</t>
+          <t>355919</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>128773</t>
+          <t>365294</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,76%</t>
+          <t>98,45%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>96,71%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,38%</t>
+          <t>99,25%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>785</t>
+          <t>487</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>139478</t>
+          <t>308750</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>136414</t>
+          <t>297264</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>142343</t>
+          <t>318270</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>91,81%</t>
+          <t>85,85%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>89,8%</t>
+          <t>82,66%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>88,5%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1508</t>
+          <t>879</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>267457</t>
+          <t>671105</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>263802</t>
+          <t>658879</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>270702</t>
+          <t>682120</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>95,01%</t>
+          <t>92,22%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>93,71%</t>
+          <t>90,54%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>96,16%</t>
+          <t>93,74%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>398</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>565</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>359642</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>359642</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>359642</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>963</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>727684</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>727684</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>727684</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2445,107 +2445,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1546</t>
+          <t>1162</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4723</t>
+          <t>7783</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13185</t>
+          <t>30605</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10558</t>
+          <t>22874</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>16649</t>
+          <t>39061</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>59</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>15985</t>
+          <t>34134</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>12724</t>
+          <t>26141</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>19934</t>
+          <t>43136</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>8,6%</t>
         </is>
       </c>
     </row>
@@ -2558,107 +2558,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>312</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>101666</t>
+          <t>227744</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>99743</t>
+          <t>223490</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>102920</t>
+          <t>230111</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>97,32%</t>
+          <t>98,47%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>95,48%</t>
+          <t>96,63%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>99,5%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>428</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>102595</t>
+          <t>239427</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>99131</t>
+          <t>230971</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>105222</t>
+          <t>247158</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>88,61%</t>
+          <t>88,67%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>85,62%</t>
+          <t>85,53%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>91,53%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1253</t>
+          <t>740</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>204261</t>
+          <t>467170</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>200312</t>
+          <t>458168</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>207522</t>
+          <t>475163</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>92,74%</t>
+          <t>93,19%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>90,95%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>94,22%</t>
+          <t>94,79%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>482</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>799</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>4258</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>1875</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>9379</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>12711</t>
+          <t>26366</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>10092</t>
+          <t>19195</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>15614</t>
+          <t>35438</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>13,81%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>49</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>13971</t>
+          <t>30624</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>11319</t>
+          <t>23283</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>17636</t>
+          <t>40447</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>9,58%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>225</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>87963</t>
+          <t>161323</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>86417</t>
+          <t>156202</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>88661</t>
+          <t>163706</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>98,59%</t>
+          <t>97,43%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>96,85%</t>
+          <t>94,34%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>99,37%</t>
+          <t>98,87%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>398</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>119601</t>
+          <t>230241</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>116698</t>
+          <t>221169</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>122220</t>
+          <t>237412</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>90,39%</t>
+          <t>89,73%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>88,2%</t>
+          <t>86,19%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>92,37%</t>
+          <t>92,52%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1279</t>
+          <t>623</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>207564</t>
+          <t>391564</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>203899</t>
+          <t>381741</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>210216</t>
+          <t>398905</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>93,69%</t>
+          <t>92,75%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>92,04%</t>
+          <t>90,42%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>94,49%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>441</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256607</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256607</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256607</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>672</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>422188</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>422188</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>422188</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3131,107 +3131,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>9809</t>
+          <t>30932</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>7320</t>
+          <t>21154</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>12973</t>
+          <t>46505</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>275</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>53566</t>
+          <t>185169</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>47239</t>
+          <t>163103</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>59788</t>
+          <t>209643</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>305</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>63375</t>
+          <t>216101</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>57012</t>
+          <t>192928</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>70433</t>
+          <t>243959</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>5,72%</t>
         </is>
       </c>
     </row>
@@ -3244,107 +3244,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4026</t>
+          <t>1866</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>714063</t>
+          <t>2029463</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>710899</t>
+          <t>2013890</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>716552</t>
+          <t>2039241</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>98,64%</t>
+          <t>98,5%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>98,21%</t>
+          <t>97,74%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>98,99%</t>
+          <t>98,97%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>4156</t>
+          <t>2733</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>743990</t>
+          <t>2018897</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>737768</t>
+          <t>1994423</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>750317</t>
+          <t>2040963</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>93,28%</t>
+          <t>91,6%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>92,5%</t>
+          <t>90,49%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>94,08%</t>
+          <t>92,6%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>8182</t>
+          <t>4599</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1458054</t>
+          <t>4048360</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1450996</t>
+          <t>4020502</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1464417</t>
+          <t>4071533</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>95,83%</t>
+          <t>94,93%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>95,37%</t>
+          <t>94,28%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>96,25%</t>
+          <t>95,48%</t>
         </is>
       </c>
     </row>
@@ -3357,22 +3357,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4078</t>
+          <t>1896</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2060395</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2060395</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2060395</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3392,22 +3392,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4475</t>
+          <t>3008</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204066</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204066</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204066</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3427,22 +3427,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>8553</t>
+          <t>4904</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4264461</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4264461</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4264461</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tiroides en Andalucia (tasa de respuesta: 99,88%)</t>
+          <t>Consumo de medicamentos para la tiroides en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5649</t>
+          <t>894</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -3732,12 +3732,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19920</t>
+          <t>2924</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -3747,77 +3747,77 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5354</t>
+          <t>316</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1382</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>15021</t>
+          <t>1598</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>11004</t>
+          <t>1210</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>3444</t>
+          <t>312</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>24114</t>
+          <t>3249</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>0,95%</t>
         </is>
       </c>
     </row>
@@ -3830,32 +3830,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>270</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>230587</t>
+          <t>169277</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>216316</t>
+          <t>167247</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,61%</t>
+          <t>99,47%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>91,57%</t>
+          <t>98,28%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -3865,72 +3865,72 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>269</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>178999</t>
+          <t>170126</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>169332</t>
+          <t>168844</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>182971</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,1%</t>
+          <t>99,81%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>91,85%</t>
+          <t>99,06%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,25%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>539</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>409585</t>
+          <t>339403</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>396475</t>
+          <t>337364</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>417145</t>
+          <t>340301</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>99,64%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>94,27%</t>
+          <t>99,05%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,18%</t>
+          <t>99,91%</t>
         </is>
       </c>
     </row>
@@ -3943,22 +3943,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3978,22 +3978,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>270</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4013,22 +4013,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>542</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4060,107 +4060,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1525</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5391</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11756</t>
+          <t>5487</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4609</t>
+          <t>2212</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21010</t>
+          <t>10044</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>11756</t>
+          <t>7012</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>5869</t>
+          <t>3309</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>21007</t>
+          <t>12635</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>3,21%</t>
         </is>
       </c>
     </row>
@@ -4173,107 +4173,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>287</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>180688</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>176822</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>99,16%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>97,04%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>306</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>302672</t>
+          <t>205991</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>293418</t>
+          <t>201434</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>309819</t>
+          <t>209266</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,26%</t>
+          <t>97,41%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,32%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,53%</t>
+          <t>98,95%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>593</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>532040</t>
+          <t>386678</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>522789</t>
+          <t>381055</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>537927</t>
+          <t>390381</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,84%</t>
+          <t>98,22%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,14%</t>
+          <t>96,79%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,92%</t>
+          <t>99,16%</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4321,22 +4321,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>315</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4356,22 +4356,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>604</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4408,102 +4408,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4301</t>
+          <t>3025</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1079</t>
+          <t>769</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9843</t>
+          <t>7424</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19501</t>
+          <t>10347</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12660</t>
+          <t>6297</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>27314</t>
+          <t>16153</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>24</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>23802</t>
+          <t>13372</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>16751</t>
+          <t>8015</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>33902</t>
+          <t>19878</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>4,0%</t>
         </is>
       </c>
     </row>
@@ -4516,107 +4516,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>388</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>306468</t>
+          <t>245288</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>300926</t>
+          <t>240889</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>309690</t>
+          <t>247544</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,62%</t>
+          <t>98,78%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,83%</t>
+          <t>97,01%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,65%</t>
+          <t>99,69%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>386</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>303112</t>
+          <t>238304</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>295299</t>
+          <t>232498</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>309953</t>
+          <t>242354</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,96%</t>
+          <t>95,84%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>91,53%</t>
+          <t>93,5%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,08%</t>
+          <t>97,47%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>774</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>609579</t>
+          <t>483592</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>599479</t>
+          <t>477086</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>616630</t>
+          <t>488949</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,24%</t>
+          <t>97,31%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,65%</t>
+          <t>96,0%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,36%</t>
+          <t>98,39%</t>
         </is>
       </c>
     </row>
@@ -4629,22 +4629,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>392</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4664,22 +4664,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>406</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4699,22 +4699,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>798</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4746,107 +4746,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8029</t>
+          <t>4480</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1351</t>
+          <t>1622</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17502</t>
+          <t>9461</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>35915</t>
+          <t>21420</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26830</t>
+          <t>15335</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>55153</t>
+          <t>29804</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>42</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>43944</t>
+          <t>25901</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>21515</t>
+          <t>18548</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>66199</t>
+          <t>35036</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>6,08%</t>
         </is>
       </c>
     </row>
@@ -4859,107 +4859,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>479</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>619135</t>
+          <t>292527</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>609662</t>
+          <t>287546</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>625813</t>
+          <t>295385</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,72%</t>
+          <t>98,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,21%</t>
+          <t>96,81%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,78%</t>
+          <t>99,45%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>421</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>368887</t>
+          <t>257555</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>349649</t>
+          <t>249171</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>377972</t>
+          <t>263640</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>91,13%</t>
+          <t>92,32%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>86,38%</t>
+          <t>89,32%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,37%</t>
+          <t>94,5%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>989</t>
+          <t>900</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>988022</t>
+          <t>550082</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>965767</t>
+          <t>540947</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1010451</t>
+          <t>557435</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>95,74%</t>
+          <t>95,5%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,59%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,92%</t>
+          <t>96,78%</t>
         </is>
       </c>
     </row>
@@ -4972,22 +4972,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>485</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5007,22 +5007,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5042,22 +5042,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>942</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5089,107 +5089,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4359</t>
+          <t>6863</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1706</t>
+          <t>3657</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9598</t>
+          <t>11719</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>44786</t>
+          <t>18377</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>35916</t>
+          <t>12323</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>54923</t>
+          <t>26317</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>41</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>49146</t>
+          <t>25240</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>39739</t>
+          <t>18377</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>59847</t>
+          <t>34661</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>7,09%</t>
         </is>
       </c>
     </row>
@@ -5202,107 +5202,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>359</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>334770</t>
+          <t>227837</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>329531</t>
+          <t>222981</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>337423</t>
+          <t>231043</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>97,08%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>97,17%</t>
+          <t>95,01%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,5%</t>
+          <t>98,44%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>388</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>273461</t>
+          <t>235719</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>263324</t>
+          <t>227779</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>282331</t>
+          <t>241773</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>85,93%</t>
+          <t>92,77%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>82,74%</t>
+          <t>89,64%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>88,71%</t>
+          <t>95,15%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>879</t>
+          <t>747</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>608231</t>
+          <t>463556</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>597530</t>
+          <t>454135</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>617638</t>
+          <t>470419</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>92,52%</t>
+          <t>94,84%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>90,9%</t>
+          <t>92,91%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>93,95%</t>
+          <t>96,24%</t>
         </is>
       </c>
     </row>
@@ -5315,22 +5315,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>370</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5350,22 +5350,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>418</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>318247</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>318247</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>318247</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5385,22 +5385,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>963</t>
+          <t>788</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>657377</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>657377</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>657377</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5432,107 +5432,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3262</t>
+          <t>3446</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>1814</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7153</t>
+          <t>5958</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>230595</t>
+          <t>21941</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>42924</t>
+          <t>16674</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>390085</t>
+          <t>27788</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>50,94%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>86,18%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>70</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>233857</t>
+          <t>25387</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>38109</t>
+          <t>19994</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>494306</t>
+          <t>32237</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>35,39%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>74,81%</t>
+          <t>8,65%</t>
         </is>
       </c>
     </row>
@@ -5545,37 +5545,37 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>558</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>204822</t>
+          <t>180602</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>200931</t>
+          <t>178090</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>207318</t>
+          <t>182234</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,43%</t>
+          <t>98,13%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>96,56%</t>
+          <t>96,76%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,63%</t>
+          <t>99,01%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5585,67 +5585,67 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>222047</t>
+          <t>166733</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>62557</t>
+          <t>160886</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>409718</t>
+          <t>172000</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>49,06%</t>
+          <t>88,37%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>85,27%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>90,52%</t>
+          <t>91,16%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>740</t>
+          <t>986</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>426870</t>
+          <t>347336</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>166421</t>
+          <t>340486</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>622618</t>
+          <t>352729</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>64,61%</t>
+          <t>93,19%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>25,19%</t>
+          <t>91,35%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>94,23%</t>
+          <t>94,64%</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5658,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>570</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5693,22 +5693,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>486</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5728,22 +5728,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>1056</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5775,107 +5775,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3592</t>
+          <t>4957</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1424</t>
+          <t>2902</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>8075</t>
+          <t>7600</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>24233</t>
+          <t>22643</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>17680</t>
+          <t>17114</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>32335</t>
+          <t>29556</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>70</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>27826</t>
+          <t>27600</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>21079</t>
+          <t>21620</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>36870</t>
+          <t>35864</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>10,01%</t>
         </is>
       </c>
     </row>
@@ -5888,107 +5888,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>464</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>148183</t>
+          <t>141576</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>143700</t>
+          <t>138933</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>150351</t>
+          <t>143631</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>97,63%</t>
+          <t>96,62%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>94,68%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>98,02%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>475</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>209371</t>
+          <t>189177</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>201269</t>
+          <t>182264</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>215924</t>
+          <t>194706</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>89,63%</t>
+          <t>89,31%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>86,16%</t>
+          <t>86,05%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>92,43%</t>
+          <t>91,92%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>939</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>357553</t>
+          <t>330753</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>348509</t>
+          <t>322489</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>364300</t>
+          <t>336733</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>92,78%</t>
+          <t>92,3%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>90,43%</t>
+          <t>89,99%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>94,53%</t>
+          <t>93,97%</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>481</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6036,22 +6036,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>528</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>233604</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>233604</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>233604</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6071,22 +6071,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>1009</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>385379</t>
+          <t>358353</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>385379</t>
+          <t>358353</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>385379</t>
+          <t>358353</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6118,107 +6118,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>29193</t>
+          <t>25191</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>17860</t>
+          <t>19021</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>47465</t>
+          <t>33561</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>207</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>372140</t>
+          <t>100530</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>173681</t>
+          <t>86397</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>937632</t>
+          <t>115664</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>42,03%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>261</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>401334</t>
+          <t>125721</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>195650</t>
+          <t>111169</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>966642</t>
+          <t>142829</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>22,31%</t>
+          <t>4,72%</t>
         </is>
       </c>
     </row>
@@ -6231,107 +6231,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1866</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2073332</t>
+          <t>1437795</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2055060</t>
+          <t>1429425</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2084665</t>
+          <t>1443965</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>98,61%</t>
+          <t>98,28%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>97,74%</t>
+          <t>97,71%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>99,15%</t>
+          <t>98,7%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2733</t>
+          <t>2673</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1858549</t>
+          <t>1463607</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1293057</t>
+          <t>1448473</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2057008</t>
+          <t>1477740</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>83,32%</t>
+          <t>93,57%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>57,97%</t>
+          <t>92,61%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>92,21%</t>
+          <t>94,48%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>4599</t>
+          <t>5478</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>3931880</t>
+          <t>2901401</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>3366572</t>
+          <t>2884293</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4137564</t>
+          <t>2915953</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>90,74%</t>
+          <t>95,85%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>77,69%</t>
+          <t>95,28%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>95,48%</t>
+          <t>96,33%</t>
         </is>
       </c>
     </row>
@@ -6344,22 +6344,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1896</t>
+          <t>2859</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2102525</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2102525</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2102525</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6379,22 +6379,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3008</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2230689</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2230689</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>2230689</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6414,22 +6414,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>4904</t>
+          <t>5739</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>4333214</t>
+          <t>3027122</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>4333214</t>
+          <t>3027122</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>4333214</t>
+          <t>3027122</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tiroides en C.Valenciana (tasa de respuesta: 99,74%)</t>
+          <t>Consumo de medicamentos para la tiroides en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6704,12 +6704,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>894</t>
+          <t>173</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -6719,77 +6719,77 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2924</t>
+          <t>774</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>0,23%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,01%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>0,53%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,72%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>1598</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0,19%</t>
-        </is>
-      </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>522</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>160</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>3249</t>
+          <t>1396</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -6799,12 +6799,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,98%</t>
         </is>
       </c>
     </row>
@@ -6817,92 +6817,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>169277</t>
+          <t>76708</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>167247</t>
+          <t>76107</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>99,77%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>98,99%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>65894</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>65226</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>66161</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>99,47%</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>98,28%</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>269</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>170126</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>168844</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>170442</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>99,81%</t>
-        </is>
-      </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>98,47%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,88%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>720</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>339403</t>
+          <t>142601</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>337364</t>
+          <t>141727</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>340301</t>
+          <t>142963</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -6912,12 +6912,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>99,05%</t>
+          <t>99,02%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,91%</t>
+          <t>99,89%</t>
         </is>
       </c>
     </row>
@@ -6930,22 +6930,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6965,22 +6965,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -7000,22 +7000,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>724</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -7047,37 +7047,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1525</t>
+          <t>1262</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>451</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5391</t>
+          <t>3179</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -7087,67 +7087,67 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5487</t>
+          <t>1715</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2212</t>
+          <t>823</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10044</t>
+          <t>3422</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>7012</t>
+          <t>2977</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>3309</t>
+          <t>1656</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>12635</t>
+          <t>5361</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,75%</t>
         </is>
       </c>
     </row>
@@ -7160,107 +7160,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>392</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>180688</t>
+          <t>73721</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>176822</t>
+          <t>71804</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74532</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,16%</t>
+          <t>98,32%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,04%</t>
+          <t>95,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>358</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>205991</t>
+          <t>66333</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>201434</t>
+          <t>64626</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>209266</t>
+          <t>67225</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,41%</t>
+          <t>97,48%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,25%</t>
+          <t>94,97%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,95%</t>
+          <t>98,79%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>750</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>386678</t>
+          <t>140054</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>381055</t>
+          <t>137670</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>390381</t>
+          <t>141375</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>98,22%</t>
+          <t>97,92%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>96,25%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,16%</t>
+          <t>98,84%</t>
         </is>
       </c>
     </row>
@@ -7273,22 +7273,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -7308,22 +7308,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -7343,22 +7343,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>764</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -7390,107 +7390,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3025</t>
+          <t>1511</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>710</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7424</t>
+          <t>3208</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10347</t>
+          <t>5919</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6297</t>
+          <t>4188</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16153</t>
+          <t>8549</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>40</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>13372</t>
+          <t>7429</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>8015</t>
+          <t>5206</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>19878</t>
+          <t>10094</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>4,7%</t>
         </is>
       </c>
     </row>
@@ -7503,107 +7503,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>560</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>245288</t>
+          <t>102449</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>240889</t>
+          <t>100752</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>247544</t>
+          <t>103250</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,78%</t>
+          <t>98,55%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,01%</t>
+          <t>96,91%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,69%</t>
+          <t>99,32%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>548</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>238304</t>
+          <t>104796</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>232498</t>
+          <t>102166</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>242354</t>
+          <t>106527</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,84%</t>
+          <t>94,65%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>93,5%</t>
+          <t>92,28%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>96,22%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>1108</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>483592</t>
+          <t>207246</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>477086</t>
+          <t>204581</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>488949</t>
+          <t>209469</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,31%</t>
+          <t>96,54%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>96,0%</t>
+          <t>95,3%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,39%</t>
+          <t>97,57%</t>
         </is>
       </c>
     </row>
@@ -7616,22 +7616,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>568</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -7651,22 +7651,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>580</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -7686,22 +7686,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7738,102 +7738,102 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4480</t>
+          <t>1198</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1622</t>
+          <t>447</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9461</t>
+          <t>2827</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21420</t>
+          <t>7251</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15335</t>
+          <t>5183</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>29804</t>
+          <t>9870</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>51</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>25901</t>
+          <t>8449</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>18548</t>
+          <t>6138</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>35036</t>
+          <t>10948</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>3,68%</t>
         </is>
       </c>
     </row>
@@ -7846,107 +7846,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>797</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>292527</t>
+          <t>143580</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>287546</t>
+          <t>141951</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>295385</t>
+          <t>144331</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,49%</t>
+          <t>99,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,81%</t>
+          <t>98,05%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,45%</t>
+          <t>99,69%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>767</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>257555</t>
+          <t>145293</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>249171</t>
+          <t>142674</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>263640</t>
+          <t>147361</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>92,32%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>89,32%</t>
+          <t>93,53%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,5%</t>
+          <t>96,6%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>1564</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>550082</t>
+          <t>288872</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>540947</t>
+          <t>286373</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>557435</t>
+          <t>291183</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>97,16%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,92%</t>
+          <t>96,32%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,78%</t>
+          <t>97,94%</t>
         </is>
       </c>
     </row>
@@ -7959,22 +7959,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>803</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7994,22 +7994,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>812</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -8029,22 +8029,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -8076,107 +8076,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6863</t>
+          <t>1605</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3657</t>
+          <t>809</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11719</t>
+          <t>2874</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>2,22%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>12437</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>9572</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>15501</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>8,19%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>6,3%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>10,2%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>14041</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>10796</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>17696</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
           <t>4,99%</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>18377</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>12323</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>26317</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>7,23%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>4,85%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>10,36%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>25240</t>
-        </is>
-      </c>
-      <c r="S16" s="2" t="inlineStr">
-        <is>
-          <t>18377</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="inlineStr">
-        <is>
-          <t>34661</t>
-        </is>
-      </c>
-      <c r="U16" s="2" t="inlineStr">
-        <is>
-          <t>5,16%</t>
-        </is>
-      </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>6,29%</t>
         </is>
       </c>
     </row>
@@ -8189,107 +8189,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>723</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>227837</t>
+          <t>127977</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>222981</t>
+          <t>126708</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>231043</t>
+          <t>128773</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,08%</t>
+          <t>98,76%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
+          <t>97,78%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>99,38%</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>139478</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>136414</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>142343</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>91,81%</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>89,8%</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>93,7%</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1508</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>267457</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>263802</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>270702</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
           <t>95,01%</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>98,44%</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>388</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>235719</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>227779</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>241773</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>92,77%</t>
-        </is>
-      </c>
-      <c r="O17" s="2" t="inlineStr">
-        <is>
-          <t>89,64%</t>
-        </is>
-      </c>
-      <c r="P17" s="2" t="inlineStr">
-        <is>
-          <t>95,15%</t>
-        </is>
-      </c>
-      <c r="Q17" s="2" t="inlineStr">
-        <is>
-          <t>747</t>
-        </is>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>463556</t>
-        </is>
-      </c>
-      <c r="S17" s="2" t="inlineStr">
-        <is>
-          <t>454135</t>
-        </is>
-      </c>
-      <c r="T17" s="2" t="inlineStr">
-        <is>
-          <t>470419</t>
-        </is>
-      </c>
-      <c r="U17" s="2" t="inlineStr">
-        <is>
-          <t>94,84%</t>
-        </is>
-      </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>92,91%</t>
+          <t>93,71%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>96,24%</t>
+          <t>96,16%</t>
         </is>
       </c>
     </row>
@@ -8302,22 +8302,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>733</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -8337,22 +8337,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>859</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -8372,22 +8372,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -8419,107 +8419,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3446</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1814</t>
+          <t>1546</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5958</t>
+          <t>4723</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>81</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>21941</t>
+          <t>13185</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>16674</t>
+          <t>10558</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>27788</t>
+          <t>16649</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>96</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>25387</t>
+          <t>15985</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>19994</t>
+          <t>12724</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>32237</t>
+          <t>19934</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>9,05%</t>
         </is>
       </c>
     </row>
@@ -8532,107 +8532,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>631</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>180602</t>
+          <t>101666</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>178090</t>
+          <t>99743</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>182234</t>
+          <t>102920</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,13%</t>
+          <t>97,32%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>96,76%</t>
+          <t>95,48%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>622</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>166733</t>
+          <t>102595</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>160886</t>
+          <t>99131</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>172000</t>
+          <t>105222</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>88,37%</t>
+          <t>88,61%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>85,27%</t>
+          <t>85,62%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>91,16%</t>
+          <t>90,88%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>1253</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>347336</t>
+          <t>204261</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>340486</t>
+          <t>200312</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>352729</t>
+          <t>207522</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>93,19%</t>
+          <t>92,74%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>91,35%</t>
+          <t>90,95%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>94,64%</t>
+          <t>94,22%</t>
         </is>
       </c>
     </row>
@@ -8645,22 +8645,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>646</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -8680,22 +8680,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>703</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8715,22 +8715,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1056</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8762,107 +8762,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>4957</t>
+          <t>1260</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2902</t>
+          <t>562</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>7600</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>75</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>22643</t>
+          <t>12711</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>17114</t>
+          <t>10092</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>29556</t>
+          <t>15614</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>82</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>27600</t>
+          <t>13971</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>21620</t>
+          <t>11319</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>35864</t>
+          <t>17636</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>7,96%</t>
         </is>
       </c>
     </row>
@@ -8875,107 +8875,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>548</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>141576</t>
+          <t>87963</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>138933</t>
+          <t>86417</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>143631</t>
+          <t>88661</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>96,62%</t>
+          <t>98,59%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>94,81%</t>
+          <t>96,85%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98,02%</t>
+          <t>99,37%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>731</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>189177</t>
+          <t>119601</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>182264</t>
+          <t>116698</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>194706</t>
+          <t>122220</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>89,31%</t>
+          <t>90,39%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>86,05%</t>
+          <t>88,2%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>91,92%</t>
+          <t>92,37%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>1279</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>330753</t>
+          <t>207564</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>322489</t>
+          <t>203899</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>336733</t>
+          <t>210216</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>92,3%</t>
+          <t>93,69%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>89,99%</t>
+          <t>92,04%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>93,97%</t>
+          <t>94,89%</t>
         </is>
       </c>
     </row>
@@ -8988,22 +8988,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>555</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -9023,22 +9023,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>806</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -9058,22 +9058,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>358353</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>358353</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>358353</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -9105,107 +9105,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>25191</t>
+          <t>9809</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>19021</t>
+          <t>7320</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>33561</t>
+          <t>12973</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>319</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>100530</t>
+          <t>53566</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>86397</t>
+          <t>47239</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>115664</t>
+          <t>59788</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>371</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>125721</t>
+          <t>63375</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>111169</t>
+          <t>57012</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>142829</t>
+          <t>70433</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,63%</t>
         </is>
       </c>
     </row>
@@ -9218,107 +9218,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2805</t>
+          <t>4026</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1437795</t>
+          <t>714063</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1429425</t>
+          <t>710899</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1443965</t>
+          <t>716552</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>98,28%</t>
+          <t>98,64%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>97,71%</t>
+          <t>98,21%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>98,7%</t>
+          <t>98,99%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2673</t>
+          <t>4156</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1463607</t>
+          <t>743990</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1448473</t>
+          <t>737768</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1477740</t>
+          <t>750317</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>93,57%</t>
+          <t>93,28%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>92,61%</t>
+          <t>92,5%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>94,48%</t>
+          <t>94,08%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>5478</t>
+          <t>8182</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>2901401</t>
+          <t>1458054</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>2884293</t>
+          <t>1450996</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>2915953</t>
+          <t>1464417</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>95,85%</t>
+          <t>95,83%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>95,28%</t>
+          <t>95,37%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>96,33%</t>
+          <t>96,25%</t>
         </is>
       </c>
     </row>
@@ -9331,22 +9331,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2859</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -9366,22 +9366,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -9401,22 +9401,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>5739</t>
+          <t>8553</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>3027122</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>3027122</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>3027122</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
